--- a/bachelor_degree.xlsx
+++ b/bachelor_degree.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>Degree_program</t>
   </si>
@@ -34,94 +34,142 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Career</t>
+  </si>
+  <si>
     <t>Bachelor of Science in Accountancy</t>
   </si>
   <si>
-    <t>Focused on financial accounting, auditing, and tax laws, with strong analytical skills.</t>
+    <t>Focused on financial accounting, auditing, and tax laws, emphasizing strong analytical skills for financial accuracy and compliance.</t>
+  </si>
+  <si>
+    <t>Accountant, Auditor, Tax Consultant</t>
   </si>
   <si>
     <t>Bachelor of Science in Management Accounting</t>
   </si>
   <si>
-    <t>Prepares students for financial planning, budgeting, and managerial finance roles.</t>
+    <t>Prepares students for careers in financial planning, budgeting, and management finance with a focus on internal controls and financial strategies.</t>
+  </si>
+  <si>
+    <t>Financial Analyst, Budget Officer, Management Consultant</t>
   </si>
   <si>
     <t>Bachelor of Science in Entrepreneurship</t>
   </si>
   <si>
-    <t>Emphasizes creativity, leadership, and business planning for starting and managing enterprises.</t>
+    <t>Emphasizes creativity, leadership, and business planning for launching and managing enterprises.</t>
+  </si>
+  <si>
+    <t>Entrepreneur, Business Development Manager, Sales Executive</t>
   </si>
   <si>
     <t>Bachelor of Science in Business Administration Major in Business Economics</t>
   </si>
   <si>
-    <t>Develops economic and business analysis skills for business and policy-making roles.</t>
+    <t>Develops economic and analytical skills for careers in business strategy and policy-making.</t>
+  </si>
+  <si>
+    <t>Economic Analyst, Policy Advisor, Business Consultant</t>
   </si>
   <si>
     <t>Bachelor of Science in Business Administration Major in Human Resource Development</t>
   </si>
   <si>
-    <t>Focuses on employee management, organizational development, and talent acquisition.</t>
+    <t>Focuses on employee management, organizational development, and talent acquisition to improve workplace culture.</t>
+  </si>
+  <si>
+    <t>HR Manager, Recruitment Specialist, Organizational Development Consultant</t>
   </si>
   <si>
     <t>Bachelor of Science in Business Administration Major in Marketing Management</t>
   </si>
   <si>
-    <t>Trains students in consumer behavior, advertising, and brand management.</t>
+    <t>Trains students in consumer behavior, advertising, and brand management for careers in marketing and communications.</t>
+  </si>
+  <si>
+    <t>Marketing Manager, Brand Strategist, Market Research Analyst</t>
   </si>
   <si>
     <t>Bachelor of Science in Criminology</t>
   </si>
   <si>
-    <t>Studies law enforcement, criminal psychology, and forensic science.</t>
+    <t>Studies law enforcement, criminal psychology, and forensic science, equipping graduates for roles in public safety.</t>
+  </si>
+  <si>
+    <t>Police Officer, Forensic Investigator, Crime Analyst</t>
   </si>
   <si>
     <t>Bachelor of Forensic Science</t>
   </si>
   <si>
-    <t>Prepares students for investigative and laboratory roles, analyzing evidence and criminal cases.</t>
+    <t>Prepares students for investigative roles analyzing evidence for criminal cases.</t>
+  </si>
+  <si>
+    <t>Forensic Scientist, Crime Scene Investigator, Laboratory Technician</t>
   </si>
   <si>
     <t>Bachelor of Early Childhood Education</t>
   </si>
   <si>
-    <t>Focuses on child development, teaching strategies, and early education practices.</t>
+    <t>Focuses on child development, teaching strategies, and early education practices for young children.</t>
+  </si>
+  <si>
+    <t>Preschool Teacher, Early Childhood Specialist, Child Development Consultant</t>
   </si>
   <si>
     <t>Bachelor of Special Needs Education</t>
   </si>
   <si>
-    <t>Trains for specialized education roles, focusing on inclusive teaching strategies.</t>
+    <t>Trains educators to support students with special needs through inclusive teaching strategies.</t>
+  </si>
+  <si>
+    <t>Special Education Teacher, Learning Support Coordinator, Behavioral Therapist</t>
   </si>
   <si>
     <t>Bachelor of Secondary Education</t>
   </si>
   <si>
-    <t>Prepares students to teach secondary-level subjects, covering pedagogy and curriculum design.</t>
+    <t>Prepares students to teach secondary-level subjects, covering pedagogy and curriculum development.</t>
+  </si>
+  <si>
+    <t>Secondary School Teacher, Curriculum Developer, Education Consultant</t>
   </si>
   <si>
     <t>Bachelor of Physical Education</t>
   </si>
   <si>
-    <t>Focused on sports, physical activity, and promoting health and wellness.</t>
+    <t>Focused on sports, physical activity, and promoting health and wellness in education and fitness.</t>
+  </si>
+  <si>
+    <t>PE Teacher, Fitness Trainer, Sports Coach</t>
   </si>
   <si>
     <t>Certificate in Teaching Program</t>
   </si>
   <si>
-    <t>Provides fundamental teaching skills and certifications for aspiring educators.</t>
+    <t>Provides fundamental skills and certifications for aspiring educators in various disciplines.</t>
+  </si>
+  <si>
+    <t>Elementary Teacher, Tutor, Education Administrator</t>
   </si>
   <si>
     <t>Certificate in Teaching Values Education</t>
   </si>
   <si>
-    <t>Focuses on character education, ethics, and moral development in teaching.</t>
+    <t>Focuses on ethics, character education, and moral development within teaching roles.</t>
+  </si>
+  <si>
+    <t>Values Education Teacher, Guidance Counselor, Life Skills Educator</t>
   </si>
   <si>
     <t>Certificate in Sign Language</t>
   </si>
   <si>
-    <t>Training for sign language interpretation and communication with hearing-impaired individuals.</t>
+    <t>Provides training in sign language interpretation for communication with hearing-impaired individuals.</t>
+  </si>
+  <si>
+    <t>Sign Language Interpreter, Disability Support Worker, Communication Specialist</t>
   </si>
   <si>
     <t>Certificate in Teaching Early Childhood Learners</t>
@@ -130,28 +178,43 @@
     <t>Provides foundational skills in early childhood education and developmental psychology.</t>
   </si>
   <si>
+    <t>Early Childhood Educator, Daycare Worker, Child Care Specialist</t>
+  </si>
+  <si>
     <t>Bachelor of Science in Architecture</t>
   </si>
   <si>
     <t>Covers building design, urban planning, and architectural theory.</t>
   </si>
   <si>
+    <t>Architect, Urban Planner, Landscape Designer</t>
+  </si>
+  <si>
     <t>Bachelor of Science in Civil Engineering</t>
   </si>
   <si>
-    <t>Focuses on construction, infrastructure planning, and structural engineering.</t>
+    <t>Focuses on construction, infrastructure, and structural engineering projects.</t>
+  </si>
+  <si>
+    <t>Civil Engineer, Structural Engineer, Construction Manager</t>
   </si>
   <si>
     <t>Bachelor of Science in Computer Engineering</t>
   </si>
   <si>
-    <t>Combines computer science and electrical engineering to develop computer hardware and software.</t>
+    <t>Combines computer science and electrical engineering for developing computer systems.</t>
+  </si>
+  <si>
+    <t>Computer Engineer, Embedded Systems Engineer, Hardware Developer</t>
   </si>
   <si>
     <t>Bachelor of Science in Electrical Engineering</t>
   </si>
   <si>
-    <t>Specializes in designing and managing electrical systems.</t>
+    <t>Specializes in designing and managing electrical systems for a range of industries.</t>
+  </si>
+  <si>
+    <t>Electrical Engineer, Power Systems Engineer, Project Engineer</t>
   </si>
   <si>
     <t>Bachelor of Science in Electronics Engineering</t>
@@ -160,10 +223,16 @@
     <t>Covers electronics, signal processing, and communication systems.</t>
   </si>
   <si>
+    <t>Electronics Engineer, Telecommunications Engineer, Circuit Design Engineer</t>
+  </si>
+  <si>
     <t>Bachelor of Science in Industrial Engineering</t>
   </si>
   <si>
-    <t>Applies engineering principles to optimize production and operations in organizations.</t>
+    <t>Applies engineering principles to optimize production and operations.</t>
+  </si>
+  <si>
+    <t>Industrial Engineer, Quality Control Analyst, Operations Manager</t>
   </si>
   <si>
     <t>Bachelor of Science in Mechanical Engineering</t>
@@ -172,40 +241,61 @@
     <t>Focused on machinery, thermodynamics, and mechanical systems.</t>
   </si>
   <si>
+    <t>Mechanical Engineer, Design Engineer, HVAC Engineer</t>
+  </si>
+  <si>
     <t>Bachelor of Science in Sanitary Engineering</t>
   </si>
   <si>
-    <t>Focuses on public health engineering, sanitation, and environmental protection.</t>
+    <t>Focuses on public health, sanitation, and environmental protection.</t>
+  </si>
+  <si>
+    <t>Sanitary Engineer, Environmental Engineer, Waste Management Specialist</t>
   </si>
   <si>
     <t>Bachelor of Multimedia Arts</t>
   </si>
   <si>
-    <t>Trains in digital arts, graphic design, and multimedia production.</t>
+    <t>Provides training in digital arts, graphic design, and multimedia production.</t>
+  </si>
+  <si>
+    <t>Graphic Designer, Animator, Multimedia Artist</t>
   </si>
   <si>
     <t>Bachelor of Arts in Communication</t>
   </si>
   <si>
-    <t>Emphasizes public speaking, media studies, and journalism.</t>
+    <t>Emphasizes media studies, public speaking, and journalism.</t>
+  </si>
+  <si>
+    <t>Public Relations Specialist, Journalist, Media Planner</t>
   </si>
   <si>
     <t>Bachelor of Arts in Digital and Multimedia Journalism</t>
   </si>
   <si>
-    <t>Prepares for careers in digital media, journalism, and multimedia storytelling.</t>
+    <t>Prepares for careers in digital media, journalism, and storytelling.</t>
+  </si>
+  <si>
+    <t>Digital Journalist, Multimedia Producer, Content Strategist</t>
   </si>
   <si>
     <t>Bachelor of Arts in Philosophy</t>
   </si>
   <si>
-    <t>Studies critical thinking, ethics, and philosophical theories.</t>
+    <t>Studies ethics, critical thinking, and philosophical theories.</t>
+  </si>
+  <si>
+    <t>Philosopher, Ethicist, Research Analyst</t>
   </si>
   <si>
     <t>Bachelor of Arts in Political Science</t>
   </si>
   <si>
-    <t>Focuses on government, law, and public policy.</t>
+    <t>Focuses on government, law, and public policy studies.</t>
+  </si>
+  <si>
+    <t>Policy Analyst, Lawyer, Diplomat</t>
   </si>
   <si>
     <t>Bachelor of Arts in International Development</t>
@@ -214,64 +304,88 @@
     <t>Studies global issues, policy, and development strategies.</t>
   </si>
   <si>
+    <t>International Development Specialist, NGO Coordinator, Policy Advisor</t>
+  </si>
+  <si>
     <t>Bachelor of Arts in Psychology</t>
   </si>
   <si>
-    <t>Covers mental health, behavior, and counseling practices.</t>
+    <t>Covers mental health, human behavior, and counseling practices.</t>
+  </si>
+  <si>
+    <t>Clinical Psychologist, HR Specialist, Counselor</t>
   </si>
   <si>
     <t>Bachelor of Science in Psychology</t>
   </si>
   <si>
-    <t>Combines psychology with science for research and clinical practice.</t>
-  </si>
-  <si>
-    <t>Bachelor of Science in Biology with specialization in Medical Biology (3 year compressed program)</t>
-  </si>
-  <si>
-    <t>An intensive program for pre-medical and medical research fields.</t>
-  </si>
-  <si>
-    <t>Bachelor of Science in Biology with specialization in Medical Biology</t>
-  </si>
-  <si>
-    <t>Prepares for careers in healthcare, research, and medical sciences.</t>
-  </si>
-  <si>
-    <t>Bachelor of Science in Biology with specialization in Microbiology</t>
-  </si>
-  <si>
-    <t>Focused on microorganisms, pathogens, and lab research.</t>
-  </si>
-  <si>
-    <t>Bachelor of Science in Biology with specialization in Cell and Molecular Biology</t>
-  </si>
-  <si>
-    <t>Covers cell biology, genetics, and molecular research.</t>
-  </si>
-  <si>
-    <t>Bachelor of Science in Biology with specialization in Plant Biology</t>
-  </si>
-  <si>
-    <t>Studies plant biology, agriculture, and botany.</t>
-  </si>
-  <si>
-    <t>Bachelor of Science in Biology with specialization in Animal Biology</t>
-  </si>
-  <si>
-    <t>Focuses on animal biology, ecology, and zoology.</t>
-  </si>
-  <si>
-    <t>Bachelor of Science in Biology with specialization in Environmental Science</t>
-  </si>
-  <si>
-    <t>Studies environmental protection, sustainability, and conservation.</t>
+    <t>Focuses on research and clinical practice within psychology.</t>
+  </si>
+  <si>
+    <t>Psychologist, Researcher, Mental Health Practitioner</t>
+  </si>
+  <si>
+    <t>Bachelor of Science in Biology (Medical Biology)</t>
+  </si>
+  <si>
+    <t>An intensive program for pre-med and medical research fields.</t>
+  </si>
+  <si>
+    <t>Medical Scientist, Research Assistant, Laboratory Technician</t>
+  </si>
+  <si>
+    <t>Bachelor of Science in Biology (Microbiology)</t>
+  </si>
+  <si>
+    <t>Studies microorganisms, pathogens, and lab research techniques.</t>
+  </si>
+  <si>
+    <t>Microbiologist, Lab Technician, Environmental Scientist</t>
+  </si>
+  <si>
+    <t>Bachelor of Science in Biology (Cell and Molecular Biology)</t>
+  </si>
+  <si>
+    <t>Covers genetics, cell biology, and molecular research.</t>
+  </si>
+  <si>
+    <t>Molecular Biologist, Geneticist, Research Scientist</t>
+  </si>
+  <si>
+    <t>Bachelor of Science in Biology (Plant Biology)</t>
+  </si>
+  <si>
+    <t>Focuses on botany, agriculture, and plant science.</t>
+  </si>
+  <si>
+    <t>Botanist, Horticulturist, Environmental Consultant</t>
+  </si>
+  <si>
+    <t>Bachelor of Science in Biology (Animal Biology)</t>
+  </si>
+  <si>
+    <t>Studies animal biology, ecology, and zoology.</t>
+  </si>
+  <si>
+    <t>Zoologist, Wildlife Biologist, Ecologist</t>
+  </si>
+  <si>
+    <t>Bachelor of Science in Biology (Environmental Science)</t>
+  </si>
+  <si>
+    <t>Focuses on environmental protection and sustainability.</t>
+  </si>
+  <si>
+    <t>Environmental Scientist, Conservationist, Environmental Policy Analyst</t>
   </si>
   <si>
     <t>Bachelor of Science in Applied Mathematics</t>
   </si>
   <si>
-    <t>Focused on mathematical theories, data analysis, and research.</t>
+    <t>Studies mathematical theories, data analysis, and applied research.</t>
+  </si>
+  <si>
+    <t>Data Analyst, Statistician, Actuary</t>
   </si>
   <si>
     <t>Bachelor of Science in Computer Science</t>
@@ -280,22 +394,34 @@
     <t>Covers programming, algorithms, and software development.</t>
   </si>
   <si>
+    <t>Software Developer, Data Scientist, Systems Analyst</t>
+  </si>
+  <si>
     <t>Bachelor of Science in Information Technology</t>
   </si>
   <si>
-    <t>Prepares for careers in IT, cybersecurity, and system administration.</t>
+    <t>Prepares for careers in IT management, cybersecurity, and network administration.</t>
+  </si>
+  <si>
+    <t>IT Specialist, Network Administrator, Cybersecurity Analyst</t>
   </si>
   <si>
     <t>Bachelor of Science in Hospitality Management</t>
   </si>
   <si>
-    <t>Focuses on service management in hotels, restaurants, and tourism.</t>
+    <t>Focuses on management in the hospitality and tourism sectors.</t>
+  </si>
+  <si>
+    <t>Hotel Manager, Event Planner, Travel Agent</t>
   </si>
   <si>
     <t>Bachelor of Science in Tourism Management</t>
   </si>
   <si>
-    <t>Covers tourism services, planning, and hospitality.</t>
+    <t>Emphasizes tourism operations, travel industry skills, and cultural awareness.</t>
+  </si>
+  <si>
+    <t>Tourism Officer, Tour Guide, Travel Consultant</t>
   </si>
 </sst>
 </file>
@@ -554,6 +680,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="66.25"/>
     <col customWidth="1" min="7" max="7" width="81.0"/>
+    <col customWidth="1" min="8" max="8" width="38.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -578,10 +705,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>18.0</v>
@@ -599,12 +729,15 @@
         <v>15.0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>17.0</v>
@@ -622,12 +755,15 @@
         <v>14.0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
         <v>20.0</v>
@@ -645,12 +781,15 @@
         <v>17.0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>21.0</v>
@@ -668,12 +807,15 @@
         <v>16.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
         <v>22.0</v>
@@ -691,12 +833,15 @@
         <v>19.0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1">
         <v>23.0</v>
@@ -714,12 +859,15 @@
         <v>18.0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1">
         <v>14.0</v>
@@ -737,12 +885,15 @@
         <v>13.0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1">
         <v>13.0</v>
@@ -760,12 +911,15 @@
         <v>12.0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1">
         <v>24.0</v>
@@ -783,12 +937,15 @@
         <v>20.0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1">
         <v>23.0</v>
@@ -806,12 +963,15 @@
         <v>21.0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1">
         <v>22.0</v>
@@ -829,12 +989,15 @@
         <v>19.0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1">
         <v>18.0</v>
@@ -852,12 +1015,15 @@
         <v>20.0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1">
         <v>20.0</v>
@@ -875,12 +1041,15 @@
         <v>20.0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1">
         <v>21.0</v>
@@ -898,12 +1067,15 @@
         <v>22.0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1">
         <v>18.0</v>
@@ -921,12 +1093,15 @@
         <v>23.0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1">
         <v>22.0</v>
@@ -944,12 +1119,15 @@
         <v>21.0</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1">
         <v>15.0</v>
@@ -967,12 +1145,15 @@
         <v>12.0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1">
         <v>12.0</v>
@@ -990,12 +1171,15 @@
         <v>10.0</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B20" s="1">
         <v>14.0</v>
@@ -1013,12 +1197,15 @@
         <v>10.0</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B21" s="1">
         <v>13.0</v>
@@ -1036,12 +1223,15 @@
         <v>9.0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B22" s="1">
         <v>12.0</v>
@@ -1059,12 +1249,15 @@
         <v>10.0</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B23" s="1">
         <v>13.0</v>
@@ -1082,12 +1275,15 @@
         <v>11.0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>50</v>
+        <v>72</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B24" s="1">
         <v>10.0</v>
@@ -1105,12 +1301,15 @@
         <v>8.0</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B25" s="1">
         <v>14.0</v>
@@ -1128,12 +1327,15 @@
         <v>9.0</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>54</v>
+        <v>78</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="B26" s="1">
         <v>23.0</v>
@@ -1151,12 +1353,15 @@
         <v>18.0</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>56</v>
+        <v>81</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="B27" s="1">
         <v>25.0</v>
@@ -1174,12 +1379,15 @@
         <v>18.0</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>58</v>
+        <v>84</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B28" s="1">
         <v>24.0</v>
@@ -1197,12 +1405,15 @@
         <v>19.0</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>60</v>
+        <v>87</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="B29" s="1">
         <v>23.0</v>
@@ -1220,12 +1431,15 @@
         <v>17.0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>62</v>
+        <v>90</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="B30" s="1">
         <v>22.0</v>
@@ -1243,12 +1457,15 @@
         <v>18.0</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>64</v>
+        <v>93</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="B31" s="1">
         <v>21.0</v>
@@ -1266,12 +1483,15 @@
         <v>19.0</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>66</v>
+        <v>96</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="B32" s="1">
         <v>20.0</v>
@@ -1289,12 +1509,15 @@
         <v>18.0</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>68</v>
+        <v>99</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="B33" s="1">
         <v>19.0</v>
@@ -1312,12 +1535,15 @@
         <v>17.0</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>70</v>
+        <v>102</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="B34" s="1">
         <v>13.0</v>
@@ -1335,260 +1561,270 @@
         <v>9.0</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>72</v>
+        <v>105</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="B35" s="1">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="C35" s="1">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="D35" s="1">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="E35" s="1">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F35" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>74</v>
+        <v>108</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="B36" s="1">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="C36" s="1">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="D36" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="E36" s="1">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F36" s="1">
         <v>7.0</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>76</v>
+        <v>111</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="B37" s="1">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="C37" s="1">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="D37" s="1">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="E37" s="1">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="F37" s="1">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>78</v>
+        <v>114</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="B38" s="1">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C38" s="1">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="D38" s="1">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="E38" s="1">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F38" s="1">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>80</v>
+        <v>117</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="B39" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="C39" s="1">
         <v>14.0</v>
       </c>
-      <c r="C39" s="1">
-        <v>16.0</v>
-      </c>
       <c r="D39" s="1">
         <v>10.0</v>
       </c>
       <c r="E39" s="1">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="F39" s="1">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>82</v>
+        <v>120</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="B40" s="1">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="C40" s="1">
-        <v>14.0</v>
+        <v>25.0</v>
       </c>
       <c r="D40" s="1">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="E40" s="1">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="F40" s="1">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>84</v>
+        <v>123</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="B41" s="1">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="C41" s="1">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="D41" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="F41" s="1">
         <v>8.0</v>
       </c>
-      <c r="E41" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="F41" s="1">
-        <v>7.0</v>
-      </c>
       <c r="G41" s="1" t="s">
-        <v>86</v>
+        <v>126</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="B42" s="1">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="C42" s="1">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="D42" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="F42" s="1">
         <v>9.0</v>
       </c>
-      <c r="E42" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="F42" s="1">
-        <v>8.0</v>
-      </c>
       <c r="G42" s="1" t="s">
-        <v>88</v>
+        <v>129</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="B43" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="C43" s="1">
         <v>14.0</v>
       </c>
-      <c r="C43" s="1">
-        <v>21.0</v>
-      </c>
       <c r="D43" s="1">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="E43" s="1">
-        <v>17.0</v>
+        <v>10.0</v>
       </c>
       <c r="F43" s="1">
-        <v>9.0</v>
+        <v>19.0</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>90</v>
+        <v>132</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="B44" s="1">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C44" s="1">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="D44" s="1">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="E44" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="F44" s="1">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B45" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="C45" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="D45" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="E45" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="F45" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>94</v>
+        <v>135</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
